--- a/data/keywords/analysis/xor_FINAL.xlsx
+++ b/data/keywords/analysis/xor_FINAL.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janek\Development\Git\master-thesis\data\keywords\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0B1F56-52B9-4091-9686-E1438B0963B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EBAD52-4C0F-40FF-8A28-1BD127F46CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Commented Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Appendix Version" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commented Version'!$A$1:$L$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -40,8 +41,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C9C28546-27F9-4BE1-AA13-23EAD5AFB75D}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C9C28546-27F9-4BE1-AA13-23EAD5AFB75D}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    FALSCH -&gt; ONLY GOLDSTANDARD</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="94">
   <si>
     <t>keyword</t>
   </si>
@@ -305,13 +324,31 @@
   </si>
   <si>
     <t>FALSCH (for metrics, see gold_xor.xlsx)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>In Literature?</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t># Docs</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,20 +362,30 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -368,12 +415,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -688,6 +742,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2022-10-29T10:11:05.59" personId="{1F94894A-AE23-439B-8802-16D1EE6EF528}" id="{C9C28546-27F9-4BE1-AA13-23EAD5AFB75D}">
+    <text>FALSCH -&gt; ONLY GOLDSTANDARD</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
@@ -700,22 +762,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -738,22 +800,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>29</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>64</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>44</v>
       </c>
       <c r="G2">
@@ -776,22 +838,22 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>15</v>
       </c>
       <c r="G3">
@@ -814,22 +876,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>13</v>
       </c>
       <c r="G4">
@@ -852,22 +914,22 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>27</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>67</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>61</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>6</v>
       </c>
       <c r="G5">
@@ -890,22 +952,22 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>4</v>
       </c>
       <c r="G6">
@@ -1846,7 +1908,19 @@
       <c r="B31" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
@@ -1860,7 +1934,19 @@
       <c r="B32" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>0</v>
       </c>
       <c r="L32" t="s">
@@ -1871,4 +1957,756 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1292A860-DD96-4856-800C-8E92D15576FF}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="4">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>